--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -493,146 +493,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
+                                                 kernel='poly',
+                                                 random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.670452380952381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02891317097757153</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5587619047619047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05555168013123375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
+                                                 random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 0 0 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6895238095238093</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03309399110085322</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5476190476190476</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05641281351300525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, random_state=42),
+                 BaggingClassifier(estimator=SVC(C=1, random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.742245989304813</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7676531936361246</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.05819493625363398</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6735742207616313</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08315702025139832</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=0.001, kernel='poly',
-                                                 random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7467914438502673</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.710656147527663</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.06507780002656946</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5955234814611524</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.09290954967479452</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=0.001, kernel='poly',
-                                                 random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.7422459893048128</v>
+        <v>0.6380952380952382</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6218113555569181</v>
+        <v>0.6738095238095237</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03646075719227558</v>
+        <v>0.03559195631867585</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4832831996088689</v>
+        <v>0.5260952380952381</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06294828913707518</v>
+        <v>0.06835069464204943</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=0.001, kernel='linear',
+                                                 random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6756907701352146</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04240077551254682</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5602586713697824</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06632229225328388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a5c78c2e0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
+                                                 random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6095238095238096</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a643ad2b0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6746138996138996</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03508057132303034</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.543114543114543</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07128255763077197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642efdf0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
+                                                 random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64212a00&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6403880070546738</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03841910271617143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5291005291005291</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06539195137793538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=0.0001, random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5904761904761905</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6385714285714286</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02900492805779044</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5173809523809523</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05856588601692412</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
                                                  kernel='poly',
@@ -501,136 +699,41 @@
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.670452380952381</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02891317097757153</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5587619047619047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05555168013123375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
-                                                 random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="B6" t="n">
         <v>0.6476190476190476</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 0 0 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6895238095238093</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03309399110085322</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5476190476190476</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05641281351300525</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=1, random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6380952380952382</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6738095238095237</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03559195631867585</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5260952380952381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06835069464204943</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6622605363984675</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03657517459822247</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5308155446086481</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06431040025763396</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,247 +493,200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=0.001, kernel='linear',
-                                                 random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6761904761904762</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 0 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6756907701352146</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04240077551254682</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5602586713697824</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06632229225328388</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a5c78c2e0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
-                                                 random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6095238095238096</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a643ad2b0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6746138996138996</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03508057132303034</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.543114543114543</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.07128255763077197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642efdf0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
-                                                 random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64212a00&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6403880070546738</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03841910271617143</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5291005291005291</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06539195137793538</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, random_state=42),
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
+                                                 random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6276560709630261</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07221157105081639</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.461466806112704</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1234891890652984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=0.001, kernel='linear',
+                                                 random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.5904761904761905</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B3" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6385714285714286</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02900492805779044</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5173809523809523</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05856588601692412</v>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7256173856863863</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.09144327207855461</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5941082848435789</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1265660367521496</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
+                                                 random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7295587745587746</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6439635610827176</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1202952201272217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5311602022206827</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1597722481577119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
-                                                 kernel='poly',
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
                                                  random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6622605363984675</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.03657517459822247</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5308155446086481</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.06431040025763396</v>
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7009543902591999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1141170074451634</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6043947903382586</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1744924503728204</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -495,20 +495,19 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1ee4580ee0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=1, kernel='linear',
                                                  random_state=42),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7147058823529411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef09867f0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -528,16 +527,16 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6276560709630261</v>
+        <v>0.6201231950985656</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07221157105081639</v>
+        <v>0.07268029030058115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.461466806112704</v>
+        <v>0.4631653149138443</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1234891890652984</v>
+        <v>0.1257141433292182</v>
       </c>
     </row>
     <row r="3">
@@ -578,16 +577,16 @@
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7256173856863863</v>
+        <v>0.7159173591320369</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09144327207855461</v>
+        <v>0.08700100323962788</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5941082848435789</v>
+        <v>0.6020948757125227</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1265660367521496</v>
+        <v>0.1233617220049524</v>
       </c>
     </row>
     <row r="4">
@@ -628,16 +627,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6439635610827176</v>
+        <v>0.6158382192027458</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1202952201272217</v>
+        <v>0.1293650174961552</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5311602022206827</v>
+        <v>0.5207446347769877</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1597722481577119</v>
+        <v>0.1658447475079126</v>
       </c>
     </row>
     <row r="5">
@@ -645,19 +644,19 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1ee4580c40&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=1, kernel='linear',
                                                  random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7823529411764707</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef0975b80&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -677,16 +676,16 @@
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7009543902591999</v>
+        <v>0.6925827286551395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1141170074451634</v>
+        <v>0.1156594433779685</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6043947903382586</v>
+        <v>0.6064047638635874</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1744924503728204</v>
+        <v>0.1747704318057565</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -495,7 +495,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1ee4580ee0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1f9927ecd0&gt;),
                 ('model',
                  BaggingClassifier(estimator=SVC(C=1, kernel='linear',
                                                  random_state=42),
@@ -507,7 +507,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef09867f0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f9924c550&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -644,7 +644,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1ee4580c40&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1f9927e970&gt;),
                 ('model',
                  BaggingClassifier(estimator=SVC(C=1, kernel='linear',
                                                  random_state=42),
@@ -656,7 +656,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef0975b80&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f992d7be0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D5" t="n">

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,48 +515,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1f9927ecd0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256220&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=1, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
                                                  random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7147058823529411</v>
+        <v>0.73</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f9924c550&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587256250&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7129496054804985</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5679567876567877</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7234042553191491</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6479264075900082</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5156095238095237</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8366666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6201231950985656</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07268029030058115</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4631653149138443</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1257141433292182</v>
       </c>
     </row>
     <row r="3">
@@ -544,49 +576,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5872569a0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.001, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
                                                  random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.6771428571428572</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587433b20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6871184070925034</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5618914030414032</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6363636363636365</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6356049308725974</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4969015873015873</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8038999999999998</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7159173591320369</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.08700100323962788</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6020948757125227</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1233617220049524</v>
       </c>
     </row>
     <row r="4">
@@ -594,49 +637,61 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256be0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
+                                                 kernel='poly',
                                                  random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7295587745587746</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b280&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
-        </is>
+        <v>0.5174177384007134</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3690166722166722</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5279069628650789</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.357145238095238</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5622105263157895</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4223999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6158382192027458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1293650174961552</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5207446347769877</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1658447475079126</v>
       </c>
     </row>
     <row r="5">
@@ -644,48 +699,122 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1f9927e970&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256490&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=1, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
                                                  random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7823529411764707</v>
+        <v>0.6452380952380953</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f992d7be0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b670&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6758508792164776</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5351280497280498</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6521739130434783</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6146296692144559</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.466306746031746</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.796452380952381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6739999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.6925827286551395</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1156594433779685</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6064047638635874</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1747704318057565</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b220&gt;),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
+                                                 kernel='linear',
+                                                 random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723a9d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7448237877459697</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5918844322344323</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6800642468822288</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5056718253968254</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8579545454545454</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7509999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -515,56 +515,57 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256220&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
                                                  random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.73</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587256250&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7129496054804985</v>
+        <v>0.6758066402468806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5679567876567877</v>
+        <v>0.5506162892662892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7234042553191491</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6479264075900082</v>
+        <v>0.6299342502011319</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5156095238095237</v>
+        <v>0.50355873015873</v>
       </c>
       <c r="I2" t="n">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.7798085106382977</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6968</v>
+        <v>0.6519999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7727272727272727</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -576,56 +577,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5872569a0&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='poly',
                                                  random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6771428571428572</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587433b20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6871184070925034</v>
+        <v>0.6704001125603487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5618914030414032</v>
+        <v>0.5480335941835941</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6363636363636365</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6356049308725974</v>
+        <v>0.6372086088800542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4969015873015873</v>
+        <v>0.5459833333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8038999999999998</v>
+        <v>0.7689574468085106</v>
       </c>
       <c r="K3" t="n">
-        <v>0.694</v>
+        <v>0.6211666666666665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -637,57 +638,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256be0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faaa3ed90d0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
-                                                 kernel='poly',
+                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
                                                  random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.6933333333333332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b280&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f72b0d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5174177384007134</v>
+        <v>0.6615637762024856</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3690166722166722</v>
+        <v>0.5197645576645578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5279069628650789</v>
+        <v>0.6219181923063317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.357145238095238</v>
+        <v>0.4695087301587302</v>
       </c>
       <c r="I4" t="n">
         <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5622105263157895</v>
+        <v>0.7780444444444445</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4223999999999999</v>
+        <v>0.6630000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0]</t>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -699,56 +699,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587256490&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f7d9df0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=1, class_weight='balanced',
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
                                                  random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6452380952380953</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b670&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f8c4be0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6758508792164776</v>
+        <v>0.6137188472413121</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5351280497280498</v>
+        <v>0.5140572316572316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6146296692144559</v>
+        <v>0.5806319370304969</v>
       </c>
       <c r="H5" t="n">
-        <v>0.466306746031746</v>
+        <v>0.4749615079365078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.796452380952381</v>
+        <v>0.7009795918367346</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6739999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -760,57 +760,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58b90b220&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53ef70&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=5, class_weight='balanced',
-                                                 kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='poly',
                                                  random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723a9d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f7eda00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7448237877459697</v>
+        <v>0.7050542655399822</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5918844322344323</v>
+        <v>0.5687642524142524</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6511627906976744</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6800642468822288</v>
+        <v>0.6533995400080819</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5056718253968254</v>
+        <v>0.519706746031746</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.7939999999999998</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7509999999999999</v>
+        <v>0.6699999999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/BaggingClassifier_SVC.xlsx
+++ b/results/BaggingClassifier_SVC.xlsx
@@ -515,170 +515,173 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=0.25,
+                                                 class_weight='balanced',
+                                                 random_state=42),
+                                   n_estimators=100, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5298740148740149</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 100, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.25}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6540104805010939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4704425666925667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8270104155185082</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.590218253968254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5703900709219858</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4430555555555555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa6283035e0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=SVC(C=0.25,
+                                                 class_weight='balanced',
+                                                 random_state=42),
+                                   n_estimators=100, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5494444444444444</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa6ccf7cb50&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 100, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.25}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6738050314870079</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4856897731897732</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.80233932078281</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6626256613756614</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5978723404255321</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=0.25,
+                                                 class_weight='balanced',
                                                  random_state=42),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6758066402468806</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5506162892662892</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6299342502011319</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.50355873015873</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7798085106382977</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6519999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='poly',
-                                                 random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6704001125603487</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5480335941835941</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6372086088800542</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5459833333333334</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7689574468085106</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6211666666666665</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faaa3ed90d0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=SVC(C=5, kernel='linear',
-                                                 random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.6933333333333332</v>
+        <v>0.5890909090909091</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f72b0d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.25}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6615637762024856</v>
+        <v>0.6541430460895407</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5197645576645578</v>
+        <v>0.5333589096089096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6219181923063317</v>
+        <v>0.7962490173887399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4695087301587302</v>
+        <v>0.649593253968254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7780444444444445</v>
+        <v>0.5648148148148149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6630000000000001</v>
+        <v>0.4883333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -687,7 +690,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -699,47 +702,49 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f7d9df0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='linear',
+                 BaggingClassifier(estimator=SVC(C=0.25,
+                                                 class_weight='balanced',
                                                  random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=200, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5445487845487846</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f8c4be0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.25}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6137188472413121</v>
+        <v>0.6283754338090092</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5140572316572316</v>
+        <v>0.4328326303326303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5806319370304969</v>
+        <v>0.8155145468583518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4749615079365078</v>
+        <v>0.5731712962962963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7009795918367346</v>
+        <v>0.5353741496598639</v>
       </c>
       <c r="K5" t="n">
-        <v>0.603</v>
+        <v>0.3930555555555555</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -748,7 +753,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -760,47 +765,48 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53ef70&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa6cd284310&gt;),
                 ('model',
-                 BaggingClassifier(estimator=SVC(C=0.0001, kernel='poly',
+                 BaggingClassifier(estimator=SVC(C=0.25,
+                                                 class_weight='balanced',
                                                  random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=200, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6633333333333333</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f7eda00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9f104e3e20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.25}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7050542655399822</v>
+        <v>0.7827114645380154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5687642524142524</v>
+        <v>0.5938885188885189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6533995400080819</v>
+        <v>0.8174656036443545</v>
       </c>
       <c r="H6" t="n">
-        <v>0.519706746031746</v>
+        <v>0.6279100529100529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7939999999999998</v>
+        <v>0.7612179487179488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6699999999999998</v>
+        <v>0.5958333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -809,7 +815,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
